--- a/merged_data.xlsx
+++ b/merged_data.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="126">
     <fill>
       <patternFill/>
     </fill>
@@ -39,188 +38,746 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00c2f6d6"/>
-        <bgColor rgb="00c2f6d6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eaf6c7"/>
-        <bgColor rgb="00eaf6c7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ccfffc"/>
-        <bgColor rgb="00ccfffc"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00f5d5d7"/>
-        <bgColor rgb="00f5d5d7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00fae5bf"/>
-        <bgColor rgb="00fae5bf"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eaecd9"/>
-        <bgColor rgb="00eaecd9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00bdd5de"/>
-        <bgColor rgb="00bdd5de"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00e9f7c7"/>
-        <bgColor rgb="00e9f7c7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eedeba"/>
-        <bgColor rgb="00eedeba"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c1b7b9"/>
-        <bgColor rgb="00c1b7b9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00b6e2ec"/>
-        <bgColor rgb="00b6e2ec"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00b6b9c3"/>
-        <bgColor rgb="00b6b9c3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c0bbec"/>
-        <bgColor rgb="00c0bbec"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00f5b5d6"/>
-        <bgColor rgb="00f5b5d6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00f4c0e7"/>
-        <bgColor rgb="00f4c0e7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c1d0c9"/>
-        <bgColor rgb="00c1d0c9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00f8e9e1"/>
-        <bgColor rgb="00f8e9e1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00d2b4ea"/>
-        <bgColor rgb="00d2b4ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00d4e6e2"/>
-        <bgColor rgb="00d4e6e2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ddd3c6"/>
-        <bgColor rgb="00ddd3c6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eed0f3"/>
-        <bgColor rgb="00eed0f3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00d7e8d0"/>
-        <bgColor rgb="00d7e8d0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c5b5c8"/>
-        <bgColor rgb="00c5b5c8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00d1dcf6"/>
-        <bgColor rgb="00d1dcf6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c1b4d3"/>
-        <bgColor rgb="00c1b4d3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c9eae5"/>
-        <bgColor rgb="00c9eae5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00f0f8b4"/>
-        <bgColor rgb="00f0f8b4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00bfb8eb"/>
-        <bgColor rgb="00bfb8eb"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eac8e3"/>
-        <bgColor rgb="00eac8e3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c7c9b9"/>
-        <bgColor rgb="00c7c9b9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c0f4e4"/>
-        <bgColor rgb="00c0f4e4"/>
+        <fgColor rgb="00ecccfc"/>
+        <bgColor rgb="00ecccfc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fcb4cd"/>
+        <bgColor rgb="00fcb4cd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00feb8bb"/>
+        <bgColor rgb="00feb8bb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e5eef6"/>
+        <bgColor rgb="00e5eef6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00dbcce2"/>
+        <bgColor rgb="00dbcce2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f6cbf2"/>
+        <bgColor rgb="00f6cbf2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fdfbb4"/>
+        <bgColor rgb="00fdfbb4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c7c8df"/>
+        <bgColor rgb="00c7c8df"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c7e6e3"/>
+        <bgColor rgb="00c7e6e3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b7d9e0"/>
+        <bgColor rgb="00b7d9e0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c4ffe6"/>
+        <bgColor rgb="00c4ffe6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cfcde6"/>
+        <bgColor rgb="00cfcde6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e8b8f5"/>
+        <bgColor rgb="00e8b8f5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bdd1e8"/>
+        <bgColor rgb="00bdd1e8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d6f3d3"/>
+        <bgColor rgb="00d6f3d3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ddcfe5"/>
+        <bgColor rgb="00ddcfe5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c4fdbf"/>
+        <bgColor rgb="00c4fdbf"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cfc4d8"/>
+        <bgColor rgb="00cfc4d8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f4d2d7"/>
+        <bgColor rgb="00f4d2d7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d8f3e3"/>
+        <bgColor rgb="00d8f3e3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c7fcfd"/>
+        <bgColor rgb="00c7fcfd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00edc6cc"/>
+        <bgColor rgb="00edc6cc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e9f3d4"/>
+        <bgColor rgb="00e9f3d4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c4c0dc"/>
+        <bgColor rgb="00c4c0dc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bfe0e2"/>
+        <bgColor rgb="00bfe0e2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f0fcf5"/>
+        <bgColor rgb="00f0fcf5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e0fcbe"/>
+        <bgColor rgb="00e0fcbe"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e4d1c4"/>
+        <bgColor rgb="00e4d1c4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cac6ef"/>
+        <bgColor rgb="00cac6ef"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e9c8c5"/>
+        <bgColor rgb="00e9c8c5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00dcc8bd"/>
+        <bgColor rgb="00dcc8bd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b5efe8"/>
+        <bgColor rgb="00b5efe8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d0e9c0"/>
+        <bgColor rgb="00d0e9c0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cbcddd"/>
+        <bgColor rgb="00cbcddd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bac2b5"/>
+        <bgColor rgb="00bac2b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cecde0"/>
+        <bgColor rgb="00cecde0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bfe7ce"/>
+        <bgColor rgb="00bfe7ce"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f1f8b4"/>
+        <bgColor rgb="00f1f8b4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d4bec2"/>
+        <bgColor rgb="00d4bec2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eae3ff"/>
+        <bgColor rgb="00eae3ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c4e9d0"/>
+        <bgColor rgb="00c4e9d0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d2e2fd"/>
+        <bgColor rgb="00d2e2fd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f2def6"/>
+        <bgColor rgb="00f2def6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f9bab7"/>
+        <bgColor rgb="00f9bab7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c4cab8"/>
+        <bgColor rgb="00c4cab8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c4c7f4"/>
+        <bgColor rgb="00c4c7f4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e2c0f1"/>
+        <bgColor rgb="00e2c0f1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c6e7e4"/>
+        <bgColor rgb="00c6e7e4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ede8df"/>
+        <bgColor rgb="00ede8df"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e4b8f1"/>
+        <bgColor rgb="00e4b8f1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c3b9fa"/>
+        <bgColor rgb="00c3b9fa"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00dee0e7"/>
+        <bgColor rgb="00dee0e7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f8bfbc"/>
+        <bgColor rgb="00f8bfbc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bffacb"/>
+        <bgColor rgb="00bffacb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c9d7ec"/>
+        <bgColor rgb="00c9d7ec"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fbf3e4"/>
+        <bgColor rgb="00fbf3e4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cceff1"/>
+        <bgColor rgb="00cceff1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c1e2d7"/>
+        <bgColor rgb="00c1e2d7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b9ceca"/>
+        <bgColor rgb="00b9ceca"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e8c1d3"/>
+        <bgColor rgb="00e8c1d3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f0ecda"/>
+        <bgColor rgb="00f0ecda"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f3faca"/>
+        <bgColor rgb="00f3faca"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b7c8bc"/>
+        <bgColor rgb="00b7c8bc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f5c3ed"/>
+        <bgColor rgb="00f5c3ed"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b4dcb8"/>
+        <bgColor rgb="00b4dcb8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d4c9bf"/>
+        <bgColor rgb="00d4c9bf"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c3e5b8"/>
+        <bgColor rgb="00c3e5b8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e0e3d9"/>
+        <bgColor rgb="00e0e3d9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fbddda"/>
+        <bgColor rgb="00fbddda"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d5cbbd"/>
+        <bgColor rgb="00d5cbbd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d8f8f1"/>
+        <bgColor rgb="00d8f8f1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bed9fc"/>
+        <bgColor rgb="00bed9fc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bec6d1"/>
+        <bgColor rgb="00bec6d1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e5c3dc"/>
+        <bgColor rgb="00e5c3dc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ddc0c5"/>
+        <bgColor rgb="00ddc0c5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fff4cd"/>
+        <bgColor rgb="00fff4cd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f7f6db"/>
+        <bgColor rgb="00f7f6db"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00dcfac7"/>
+        <bgColor rgb="00dcfac7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f8f4f4"/>
+        <bgColor rgb="00f8f4f4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d4cdeb"/>
+        <bgColor rgb="00d4cdeb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e7e3ec"/>
+        <bgColor rgb="00e7e3ec"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fdd8c0"/>
+        <bgColor rgb="00fdd8c0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c8cfde"/>
+        <bgColor rgb="00c8cfde"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00baccbe"/>
+        <bgColor rgb="00baccbe"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e4ebb6"/>
+        <bgColor rgb="00e4ebb6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e0d2d4"/>
+        <bgColor rgb="00e0d2d4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d9bcb7"/>
+        <bgColor rgb="00d9bcb7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e9d3cc"/>
+        <bgColor rgb="00e9d3cc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c3d8bf"/>
+        <bgColor rgb="00c3d8bf"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00dfdfc9"/>
+        <bgColor rgb="00dfdfc9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d5c9da"/>
+        <bgColor rgb="00d5c9da"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e7f5ff"/>
+        <bgColor rgb="00e7f5ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bbd2c7"/>
+        <bgColor rgb="00bbd2c7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00edcad8"/>
+        <bgColor rgb="00edcad8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f0fcef"/>
+        <bgColor rgb="00f0fcef"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e1fdbe"/>
+        <bgColor rgb="00e1fdbe"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c8f0c1"/>
+        <bgColor rgb="00c8f0c1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c7d8fb"/>
+        <bgColor rgb="00c7d8fb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cec0e8"/>
+        <bgColor rgb="00cec0e8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f2bec3"/>
+        <bgColor rgb="00f2bec3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c4d3d7"/>
+        <bgColor rgb="00c4d3d7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bcf3fa"/>
+        <bgColor rgb="00bcf3fa"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b4f2f1"/>
+        <bgColor rgb="00b4f2f1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d2d2b8"/>
+        <bgColor rgb="00d2d2b8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e9fdd0"/>
+        <bgColor rgb="00e9fdd0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d8dbdf"/>
+        <bgColor rgb="00d8dbdf"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d5fdde"/>
+        <bgColor rgb="00d5fdde"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c7e1fb"/>
+        <bgColor rgb="00c7e1fb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d1c9f8"/>
+        <bgColor rgb="00d1c9f8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bdd4d7"/>
+        <bgColor rgb="00bdd4d7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ecc5d0"/>
+        <bgColor rgb="00ecc5d0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c5dbed"/>
+        <bgColor rgb="00c5dbed"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cae0bb"/>
+        <bgColor rgb="00cae0bb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b6f6ec"/>
+        <bgColor rgb="00b6f6ec"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e4b7d7"/>
+        <bgColor rgb="00e4b7d7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e6b6d9"/>
+        <bgColor rgb="00e6b6d9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f8c5f2"/>
+        <bgColor rgb="00f8c5f2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bbcfd1"/>
+        <bgColor rgb="00bbcfd1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00efd6c4"/>
+        <bgColor rgb="00efd6c4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00edc6c7"/>
+        <bgColor rgb="00edc6c7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c7c2c2"/>
+        <bgColor rgb="00c7c2c2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b5e8b9"/>
+        <bgColor rgb="00b5e8b9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cdc2d6"/>
+        <bgColor rgb="00cdc2d6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00efdbfa"/>
+        <bgColor rgb="00efdbfa"/>
       </patternFill>
     </fill>
   </fills>
@@ -242,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -278,6 +835,99 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -643,7 +1293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,9 +1303,9 @@
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="97" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3243,69 +3893,5154 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="5" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>항목</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>수량</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>총 BKG NO 수</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>총 CNTR NO 수</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>처리된 파일 수</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
+    <row r="128">
+      <c r="A128" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CAAU6959075</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>MEDU4272247</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>MSDU6340456</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>MSMU4143958</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>MSMU6884610</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>MSMU8333637</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>MSNU5253059</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>MSNU7177467</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>MSNU8574010</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>MSNU8614915</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>TCNU1308586</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TGBU5842136</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>TIIU5870950</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>TRHU5144442</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="33" t="inlineStr">
+        <is>
+          <t>096KR0979342</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>TXGU5054224</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="34" t="inlineStr">
+        <is>
+          <t>EBKG11922557</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MSMU6005006</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="34" t="inlineStr">
+        <is>
+          <t>EBKG11922557</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>TEMU6725828</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="35" t="inlineStr">
+        <is>
+          <t>096KR0979343</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>MEDU8544220</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="35" t="inlineStr">
+        <is>
+          <t>096KR0979343</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>MSMU6277703</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="35" t="inlineStr">
+        <is>
+          <t>096KR0979343</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>MSNU5088102</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="35" t="inlineStr">
+        <is>
+          <t>096KR0979343</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TGHU6112617</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="36" t="inlineStr">
+        <is>
+          <t>096KR0979344</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>MSDU5277889</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PART 40HC*1</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="36" t="inlineStr">
+        <is>
+          <t>096KR0979344</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>MSDU8621750</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PART 40HC*1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="36" t="inlineStr">
+        <is>
+          <t>096KR0979344</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>MSMU4742540</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PART 40HC*1</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="36" t="inlineStr">
+        <is>
+          <t>096KR0979344</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>MSMU4906598</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PART 40HC*1</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="36" t="inlineStr">
+        <is>
+          <t>096KR0979344</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>MSNU8563016</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>PART 40HC*1</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="37" t="inlineStr">
+        <is>
+          <t>EBKG12053881</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>MSMU5879481</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="38" t="inlineStr">
+        <is>
+          <t>EBKG12055387</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>MSMU4675884</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="39" t="inlineStr">
+        <is>
+          <t>EBKG11971114</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>MSNU3011020</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="40" t="inlineStr">
+        <is>
+          <t>EBKG11971115</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>MSNU3562423</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>FLX  - DMIX 올림</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="41" t="inlineStr">
+        <is>
+          <t>EBKG12008174</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>TXGU6960199</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="42" t="inlineStr">
+        <is>
+          <t>096KR0979569</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>CAAU5090500</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="42" t="inlineStr">
+        <is>
+          <t>096KR0979569</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>CRXU9281756</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="42" t="inlineStr">
+        <is>
+          <t>096KR0979569</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>FFAU1979560</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="42" t="inlineStr">
+        <is>
+          <t>096KR0979569</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>FFAU4042990</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="42" t="inlineStr">
+        <is>
+          <t>096KR0979569</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>GLDU7732299</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="42" t="inlineStr">
+        <is>
+          <t>096KR0979569</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>MSDU7864627</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="42" t="inlineStr">
+        <is>
+          <t>096KR0979569</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>MSMU5076330</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="42" t="inlineStr">
+        <is>
+          <t>096KR0979569</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>MSMU5173710</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="42" t="inlineStr">
+        <is>
+          <t>096KR0979569</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>MSNU7977644</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="42" t="inlineStr">
+        <is>
+          <t>096KR0979569</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>MSNU9026304</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="42" t="inlineStr">
+        <is>
+          <t>096KR0979569</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>TGHU9755561</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="42" t="inlineStr">
+        <is>
+          <t>096KR0979569</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>MSMU6107461</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>PART 40HC*3</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="43" t="inlineStr">
+        <is>
+          <t>EBKG11907433</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>CAIU7015920</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="43" t="inlineStr">
+        <is>
+          <t>EBKG11907433</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>MSNU5526620</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="43" t="inlineStr">
+        <is>
+          <t>EBKG11907433</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>MSNU6781087</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="43" t="inlineStr">
+        <is>
+          <t>EBKG11907433</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>SEKU4002469</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="44" t="inlineStr">
+        <is>
+          <t>096KR0978324</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>FFAU3969900</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>PART 40HC*12</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="44" t="inlineStr">
+        <is>
+          <t>096KR0978324</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>MSDU8430501</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>PART 40HC*12</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="44" t="inlineStr">
+        <is>
+          <t>096KR0978324</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>MSDU8927165</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>PART 40HC*12</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="44" t="inlineStr">
+        <is>
+          <t>096KR0978324</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MSNU7203340</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>PART 40HC*12</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="44" t="inlineStr">
+        <is>
+          <t>096KR0978324</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>TGBU5594533</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>PART 40HC*12</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="44" t="inlineStr">
+        <is>
+          <t>096KR0978324</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>TGBU9869346</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>PART 40HC*12</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="44" t="inlineStr">
+        <is>
+          <t>096KR0978324</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>UESU5225667</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>PART 40HC*12</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="44" t="inlineStr">
+        <is>
+          <t>096KR0978324</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>UETU7701030</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>PART 40HC*12</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="45" t="inlineStr">
+        <is>
+          <t>096KR0978325</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>FFAU2339721</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="45" t="inlineStr">
+        <is>
+          <t>096KR0978325</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>MEDU7800369</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="45" t="inlineStr">
+        <is>
+          <t>096KR0978325</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>MSBU8284987</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="45" t="inlineStr">
+        <is>
+          <t>096KR0978325</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>TIIU4190433</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="45" t="inlineStr">
+        <is>
+          <t>096KR0978325</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>UETU7806880</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="46" t="inlineStr">
+        <is>
+          <t>096KR0979313</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MSNU5065051</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="46" t="inlineStr">
+        <is>
+          <t>096KR0979313</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>MSNU7028231</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="46" t="inlineStr">
+        <is>
+          <t>096KR0979313</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>TGBU5620904</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="47" t="inlineStr">
+        <is>
+          <t>EBKG11956983</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>MSDU7352575</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="47" t="inlineStr">
+        <is>
+          <t>EBKG11956983</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>TGBU9233035</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="47" t="inlineStr">
+        <is>
+          <t>EBKG11956983</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>MSMU7577270</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="47" t="inlineStr">
+        <is>
+          <t>EBKG11956983</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>MSMU4150535</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="47" t="inlineStr">
+        <is>
+          <t>EBKG11956983</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>FDCU0208587</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="48" t="inlineStr">
+        <is>
+          <t>EBKG11956984</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>MSBU5346344</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="48" t="inlineStr">
+        <is>
+          <t>EBKG11956984</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>BEAU5926286</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="48" t="inlineStr">
+        <is>
+          <t>EBKG11956984</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>MSMU7841490</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="48" t="inlineStr">
+        <is>
+          <t>EBKG11956984</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>MSMU8961021</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="48" t="inlineStr">
+        <is>
+          <t>EBKG11956984</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>MSMU4422525</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="49" t="inlineStr">
+        <is>
+          <t>096KR0979691</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>BMOU6106666</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>PART 40HC*1</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="49" t="inlineStr">
+        <is>
+          <t>096KR0979691</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>MSMU5070012</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>PART 40HC*1</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="49" t="inlineStr">
+        <is>
+          <t>096KR0979691</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>MSNU7174215</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>PART 40HC*1</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="49" t="inlineStr">
+        <is>
+          <t>096KR0979691</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>SEGU6094412</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>PART 40HC*1</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="49" t="inlineStr">
+        <is>
+          <t>096KR0979691</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>TRHU8406989</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>PART 40HC*1</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="50" t="inlineStr">
+        <is>
+          <t>EBKG12036886</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>MSBU5266470</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="50" t="inlineStr">
+        <is>
+          <t>EBKG12036886</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>MSDU6024000</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="50" t="inlineStr">
+        <is>
+          <t>EBKG12036886</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>MSMU4886948</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="50" t="inlineStr">
+        <is>
+          <t>EBKG12036886</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>MSMU4974822</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="50" t="inlineStr">
+        <is>
+          <t>EBKG12036886</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>MSMU5638695</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="51" t="inlineStr">
+        <is>
+          <t>096KR0976685</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>FFAU3748787</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="51" t="inlineStr">
+        <is>
+          <t>096KR0976685</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>TGHU6782178</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="52" t="inlineStr">
+        <is>
+          <t>096KR0976687</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>MSNU8049542</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="53" t="inlineStr">
+        <is>
+          <t>EBKG11906425</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>MSDU5054674</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Povazska Bystrica/KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="54" t="inlineStr">
+        <is>
+          <t>EBKG11906898</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>MSDU6310847</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Hatvan/KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="54" t="inlineStr">
+        <is>
+          <t>EBKG11906898</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>MSMU7176343</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Hatvan/KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="55" t="inlineStr">
+        <is>
+          <t>EBKG11906911</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>MSBU6527157</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Ilava/KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="56" t="inlineStr">
+        <is>
+          <t>EBKG12003159</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>MSMU7662561</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="56" t="inlineStr">
+        <is>
+          <t>EBKG12003159</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>FFAU5727470</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="57" t="inlineStr">
+        <is>
+          <t>EBKG12022823</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>MSDU6524290</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Voderady/KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="58" t="inlineStr">
+        <is>
+          <t>EBKG12074810</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>MSNU5214113</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Ilava/KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="59" t="inlineStr">
+        <is>
+          <t>096KR0976467</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>MSMU7202587</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="60" t="inlineStr">
+        <is>
+          <t>EBKG11726090</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>GESU3826650</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="61" t="inlineStr">
+        <is>
+          <t>EBKG11843902</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>TGCU5246104</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="62" t="inlineStr">
+        <is>
+          <t>096KR0978185</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>MSMU2666076</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="62" t="inlineStr">
+        <is>
+          <t>096KR0978185</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>MSDU2473532</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="62" t="inlineStr">
+        <is>
+          <t>096KR0978185</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>MSNU7930800</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="63" t="inlineStr">
+        <is>
+          <t>EBKG12009700</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>FSCU8341450</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="64" t="inlineStr">
+        <is>
+          <t>EBKG12009733</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>MEDU4810487</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="65" t="inlineStr">
+        <is>
+          <t>EBKG11870813</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>TEMU1377530</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="66" t="inlineStr">
+        <is>
+          <t>096KR0978522</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>MSDU2437767</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="67" t="inlineStr">
+        <is>
+          <t>096KR0977089</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>TGBU7809986</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>DG UN 3077/9</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="67" t="inlineStr">
+        <is>
+          <t>096KR0977089</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>MSNU6553209</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>DG UN 3077/9</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="68" t="inlineStr">
+        <is>
+          <t>EBKG12024095</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>TCLU6792876</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>40FR - OOG -  OH: 108CM  &amp; OW(EACH): 3CM</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>KOPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>CXSU1138400</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>40FR - OOG -  OH: 108CM</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>MSDU9963017</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>40HF - OOG -  OH: 92CM</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>TRIU0739225</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>40FR - OOG -  OH: 108CM</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>MSCU4469836</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40FR - OOG -  OH: 45CM &amp; OW(EACH): 3CM </t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>TCLU6001677</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>40FR - OOG -  OH: 123CM</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>TRLU5040600</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>40FR - OOG -  OH: 123CM</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>TEXU7501868</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40HF - OOG -  OH: 15CM &amp; OW(EACH): 3CM </t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>MSCU4469517</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>40FR - OOG -  OH: 108CM  &amp; OW(EACH): 3CM</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>MSDU9941419</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>40HF - OOG -  OH: 77CM</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>TOLU8994015</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>40FR - OOG -  OH: 108CM</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>TCLU6070385</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>40FR - OOG -  OH: 108CM</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>MSDU9968153</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>40HF - OOG -  OH: 78CM  &amp; OW(EACH): 3CM</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="69" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>TRLU6174516</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>40FR - OOG -  OH: 108CM</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="70" t="inlineStr">
+        <is>
+          <t>EBKG11886761</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>CAIU7127299</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Zarow/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="71" t="inlineStr">
+        <is>
+          <t>EBKG11886772</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>MSDU7223937</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Zilina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="71" t="inlineStr">
+        <is>
+          <t>EBKG11886772</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>MSMU6719955</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Zilina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="71" t="inlineStr">
+        <is>
+          <t>EBKG11886772</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>TGBU6667439</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Zilina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="71" t="inlineStr">
+        <is>
+          <t>EBKG11886772</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>TCNU8908941</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Zilina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>MSNU7064630</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>TCNU3614939</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>TIIU4318714</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>MSBU5209336</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>TRHU6558771</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>MSDU8858608</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>TGBU7009582</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>MSMU8759659</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>DFSU7112496</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>MSMU8790680</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>MSMU6988430</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>MSMU7676483</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>BMOU4302886</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>TCNU5429987</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>MEDU4891560</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>MEDU8777134</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>TXGU4213173</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>FSCU9404044</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>MSNU5895568</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="72" t="inlineStr">
+        <is>
+          <t>EBKG11906566</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>MSDU7955835</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="73" t="inlineStr">
+        <is>
+          <t>EBKG11923615</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>FFAU5850592</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Otrokovice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="73" t="inlineStr">
+        <is>
+          <t>EBKG11923615</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>MSNU8577318</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Otrokovice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="73" t="inlineStr">
+        <is>
+          <t>EBKG11923615</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>CAIU4747104</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Otrokovice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="74" t="inlineStr">
+        <is>
+          <t>EBKG11926455</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>FCIU9759960</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Ilava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="75" t="inlineStr">
+        <is>
+          <t>EBKG11939155</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>CAIU9058216</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Dubnica Nad Vahom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="75" t="inlineStr">
+        <is>
+          <t>EBKG11939155</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>MSCU5141965</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Dubnica Nad Vahom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="75" t="inlineStr">
+        <is>
+          <t>EBKG11939155</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>SEKU4013859</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Dubnica Nad Vahom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="75" t="inlineStr">
+        <is>
+          <t>EBKG11939155</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>MSNU9754491</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Dubnica Nad Vahom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="76" t="inlineStr">
+        <is>
+          <t>EBKG11972489</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>TGBU5976460</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Kunin/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="76" t="inlineStr">
+        <is>
+          <t>EBKG11972489</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>BMOU4074512</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Kunin/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="77" t="inlineStr">
+        <is>
+          <t>EBKG11972875</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>MSMU4416585</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Prerov/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="78" t="inlineStr">
+        <is>
+          <t>EBKG11857742</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>MSDU6129016</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="79" t="inlineStr">
+        <is>
+          <t>EBKG12003145</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>CARU5161496</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Skoczow/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="79" t="inlineStr">
+        <is>
+          <t>EBKG12003145</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>MSDU6502053</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Skoczow/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="79" t="inlineStr">
+        <is>
+          <t>EBKG12003145</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>MEDU6963607</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Skoczow/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="80" t="inlineStr">
+        <is>
+          <t>EBKG12005192</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>MSDU8492231</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="80" t="inlineStr">
+        <is>
+          <t>EBKG12005192</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>CAIU4635927</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="80" t="inlineStr">
+        <is>
+          <t>EBKG12005192</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>XINU8138532</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="80" t="inlineStr">
+        <is>
+          <t>EBKG12005192</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>MSNU8518779</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="80" t="inlineStr">
+        <is>
+          <t>EBKG12005192</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>GLDU7732370</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="80" t="inlineStr">
+        <is>
+          <t>EBKG12005192</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>MSMU5086791</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="80" t="inlineStr">
+        <is>
+          <t>EBKG12005192</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>MSMU6159948</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="80" t="inlineStr">
+        <is>
+          <t>EBKG12005192</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>DFSU6199260</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="80" t="inlineStr">
+        <is>
+          <t>EBKG12005192</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>MSMU8841406</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="80" t="inlineStr">
+        <is>
+          <t>EBKG12005192</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>MSNU7816378</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="81" t="inlineStr">
+        <is>
+          <t>EBKG12022429</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>MSCU5252830</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Zilina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="81" t="inlineStr">
+        <is>
+          <t>EBKG12022429</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>CAIU7008849</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Zilina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="82" t="inlineStr">
+        <is>
+          <t>EBKG12022447</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>MSMU8559500</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Cesky Tesin/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="83" t="inlineStr">
+        <is>
+          <t>EBKG12022560</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>SEKU6847552</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Povazska Bystrica/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="83" t="inlineStr">
+        <is>
+          <t>EBKG12022560</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>MSDU5968978</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Povazska Bystrica/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="83" t="inlineStr">
+        <is>
+          <t>EBKG12022560</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>MEDU9423407</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Povazska Bystrica/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="83" t="inlineStr">
+        <is>
+          <t>EBKG12022560</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>TGCU5252067</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Povazska Bystrica/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="83" t="inlineStr">
+        <is>
+          <t>EBKG12022560</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>MSMU7936997</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Povazska Bystrica/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="83" t="inlineStr">
+        <is>
+          <t>EBKG12022560</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>MSDU5313440</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Povazska Bystrica/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="83" t="inlineStr">
+        <is>
+          <t>EBKG12022560</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>MSMU5245430</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Povazska Bystrica/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="84" t="inlineStr">
+        <is>
+          <t>EBKG12022580</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>TRHU7175669</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Bazanowice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="84" t="inlineStr">
+        <is>
+          <t>EBKG12022580</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>BMOU6695118</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Bazanowice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="84" t="inlineStr">
+        <is>
+          <t>EBKG12022580</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>MEDU8840094</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Bazanowice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="84" t="inlineStr">
+        <is>
+          <t>EBKG12022580</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>HPCU2628964</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Bazanowice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="85" t="inlineStr">
+        <is>
+          <t>EBKG12058663</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>TRHU1488579</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="86" t="inlineStr">
+        <is>
+          <t>EBKG12059881</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>MSMU5889962</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Ostrava/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="87" t="inlineStr">
+        <is>
+          <t>EBKG12057710</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>FFAU3855091</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Hranice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="87" t="inlineStr">
+        <is>
+          <t>EBKG12057710</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>CAIU4900933</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Hranice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="88" t="inlineStr">
+        <is>
+          <t>EBKG12057731</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>TIIU4167855</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Hranice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="89" t="inlineStr">
+        <is>
+          <t>EBKG11939516</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>FFAU2933688</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Hranice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="90" t="inlineStr">
+        <is>
+          <t>EBKG11906379</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>MSNU2006836</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Nosovice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="90" t="inlineStr">
+        <is>
+          <t>EBKG11906379</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>TRHU2422703</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Nosovice/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="91" t="inlineStr">
+        <is>
+          <t>EBKG12055777</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>MSBU5338380</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Komarom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="92" t="inlineStr">
+        <is>
+          <t>EBKG12073144</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>FCGU1670118</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="93" t="inlineStr">
+        <is>
+          <t>EBKG12073479</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>GATU1121726</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Komarom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="94" t="inlineStr">
+        <is>
+          <t>EBKG11941593</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>MSNU2975850</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Tatabanya/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="95" t="inlineStr">
+        <is>
+          <t>EBKG12003140</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>UETU7742868</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="95" t="inlineStr">
+        <is>
+          <t>EBKG12003140</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>MSMU4630806</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="95" t="inlineStr">
+        <is>
+          <t>EBKG12003140</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>MSNU7923632</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="95" t="inlineStr">
+        <is>
+          <t>EBKG12003140</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>MSNU7883709</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="95" t="inlineStr">
+        <is>
+          <t>EBKG12003140</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>MSNU7850161</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Karvina/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="96" t="inlineStr">
+        <is>
+          <t>EBKG12036449</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>MEDU3663967</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="97" t="inlineStr">
+        <is>
+          <t>EBKG11971163</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>MSMU2534552</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Piesendorf/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="98" t="inlineStr">
+        <is>
+          <t>EBKG12058592</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>MEDU2964776</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Tatabanya/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="98" t="inlineStr">
+        <is>
+          <t>EBKG12058592</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>MSNU2689440</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Tatabanya/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="99" t="inlineStr">
+        <is>
+          <t>EBKG11823694</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>MSDU5073041</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Tatabanya/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="99" t="inlineStr">
+        <is>
+          <t>EBKG11823694</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>CAAU7452681</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Tatabanya/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="99" t="inlineStr">
+        <is>
+          <t>EBKG11823694</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>TCLU5912133</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Tatabanya/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="99" t="inlineStr">
+        <is>
+          <t>EBKG11823694</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>FSCU9856738</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Tatabanya/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="100" t="inlineStr">
+        <is>
+          <t>EBKG11828526</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>TCNU1920251</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Ivancsa/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="100" t="inlineStr">
+        <is>
+          <t>EBKG11828526</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>MSNU6098954</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Ivancsa/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="100" t="inlineStr">
+        <is>
+          <t>EBKG11828526</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>TCNU1434434</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Ivancsa/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="101" t="inlineStr">
+        <is>
+          <t>EBKG11877038</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>MSNU5664954</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Komarom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="101" t="inlineStr">
+        <is>
+          <t>EBKG11877038</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>TLLU8575651</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Komarom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="101" t="inlineStr">
+        <is>
+          <t>EBKG11877038</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>MSNU7130710</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Komarom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="102" t="inlineStr">
+        <is>
+          <t>EBKG11921961</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>CAIU6818233</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Ivancsa/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="103" t="inlineStr">
+        <is>
+          <t>EBKG11970609</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>MSNU7924120</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Ivancsa/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="104" t="inlineStr">
+        <is>
+          <t>EBKG12005300</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>BMOU5911932</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Komarom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="104" t="inlineStr">
+        <is>
+          <t>EBKG12005300</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>CRXU9280235</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Komarom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="104" t="inlineStr">
+        <is>
+          <t>EBKG12005300</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>DFSU6549455</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Komarom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="104" t="inlineStr">
+        <is>
+          <t>EBKG12005300</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>MSBU5063730</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Komarom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="104" t="inlineStr">
+        <is>
+          <t>EBKG12005300</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>MSDU6688729</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Komarom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="104" t="inlineStr">
+        <is>
+          <t>EBKG12005300</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>MSMU8515550</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Komarom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="105" t="inlineStr">
+        <is>
+          <t>EBKG12019400</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>CAAU7520549</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Komarom/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="106" t="inlineStr">
+        <is>
+          <t>EBKG12036484</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>MEDU7703815</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>DG UN 2923/8(6.1) + NORMAL
+DG UN 2923/8(6.1) + QTY
+DG UN 2811/6.1 + NORMAL
+DG UN 2811/6.1 + QTY</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Tatabanya/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="107" t="inlineStr">
+        <is>
+          <t>096KR0976604</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>MSDU4402327</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="108" t="inlineStr">
+        <is>
+          <t>096KR0976605</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>MSDU2426295</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="109" t="inlineStr">
+        <is>
+          <t>096KR0977474</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>MSDU1742597</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>FLX  - DMIX 올림</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="109" t="inlineStr">
+        <is>
+          <t>096KR0977474</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>MEDU5595748</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>FLX  - DMIX 올림</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="110" t="inlineStr">
+        <is>
+          <t>096KR0978414</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>MSMU1556109</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="111" t="inlineStr">
+        <is>
+          <t>EBKG11872873</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>MSDU2379146</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="111" t="inlineStr">
+        <is>
+          <t>EBKG11872873</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>MSDU1122106</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="112" t="inlineStr">
+        <is>
+          <t>EBKG12023597</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>TGBU9326375</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>DG UN 3480/9/LIB(NEW) - FDGOK</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>GOD/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="113" t="inlineStr">
+        <is>
+          <t>EBKG11921974</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>MSDU8085679</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="113" t="inlineStr">
+        <is>
+          <t>EBKG11921974</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>SEKU6788589</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="113" t="inlineStr">
+        <is>
+          <t>EBKG11921974</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>TRHU6439730</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="114" t="inlineStr">
+        <is>
+          <t>EBKG11921979</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>MSNU5214089</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr"/>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="114" t="inlineStr">
+        <is>
+          <t>EBKG11921979</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>UETU5677439</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="115" t="inlineStr">
+        <is>
+          <t>EBKG11921984</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>MEDU5859630</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="115" t="inlineStr">
+        <is>
+          <t>EBKG11921984</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>MSBU3249181</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="116" t="inlineStr">
+        <is>
+          <t>EBKG11923903</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>MSCU5418366</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr"/>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="116" t="inlineStr">
+        <is>
+          <t>EBKG11923903</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>MSMU4156359</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr"/>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="117" t="inlineStr">
+        <is>
+          <t>EBKG11925736</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>MEDU8997191</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr"/>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Dunaujvaros/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="118" t="inlineStr">
+        <is>
+          <t>EBKG11959173</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>FCIU4733990</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr"/>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="118" t="inlineStr">
+        <is>
+          <t>EBKG11959173</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>MSCU6832806</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr"/>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="119" t="inlineStr">
+        <is>
+          <t>EBKG11959507</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>TLLU8636150</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="120" t="inlineStr">
+        <is>
+          <t>EBKG12073560</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>FCIU5513710</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="120" t="inlineStr">
+        <is>
+          <t>EBKG12073560</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>MEDU2578074</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr"/>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="120" t="inlineStr">
+        <is>
+          <t>EBKG12073560</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>MEDU5622360</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="120" t="inlineStr">
+        <is>
+          <t>EBKG12073560</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>MEDU6907250</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="120" t="inlineStr">
+        <is>
+          <t>EBKG12073560</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>MSMU1245323</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Racalmas/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="121" t="inlineStr">
+        <is>
+          <t>EBKG11939208</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>MSDU5962326</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="122" t="inlineStr">
+        <is>
+          <t>EBKG11970707</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>MSNU1257966</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="123" t="inlineStr">
+        <is>
+          <t>EBKG11987206</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>MEDU5190631</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Budapest/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="124" t="inlineStr">
+        <is>
+          <t>EBKG12003570</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>DFSU6705521</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr"/>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Budapest/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="124" t="inlineStr">
+        <is>
+          <t>EBKG12003570</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>MSMU8427377</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr"/>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Budapest/TRIESTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="125" t="inlineStr">
+        <is>
+          <t>EBKG12024154</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>GLDU3876317</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>TRIESTE</t>
+        </is>
       </c>
     </row>
   </sheetData>
